--- a/working_windows_extension/version_4/member web/booking/Expenses.xlsx
+++ b/working_windows_extension/version_4/member web/booking/Expenses.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>Confirmation Number</t>
-  </si>
-  <si>
-    <t>Conf/Cxl#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Booking.com Price</t>
+    <t>Booking Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conf Number </t>
+  </si>
+  <si>
+    <t>Guest Name</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>Description</t>
